--- a/biology/Médecine/Eduardo_Pavlovsky/Eduardo_Pavlovsky.xlsx
+++ b/biology/Médecine/Eduardo_Pavlovsky/Eduardo_Pavlovsky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduardo Pavlovsky, dit Tato Pavlovsky, est un dramaturge, acteur et psychiatre argentin, né le 10 décembre 1933 à Buenos Aires et mort le 4 octobre 2015 dans la même ville.
 Il a vécu en exil durant la période de dictature militaire en Argentine.
@@ -512,7 +524,9 @@
           <t>Pièces de théâtre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pièces de théâtre de Pavlovsky sont inspirées du théâtre de l'absurde, mais à la différence de ses auteurs habituels, celles-ci ont lieu dans un contexte socialement et politiquement très marqué. On y retrouve de manière récurrente une réflexion sur la violence institutionnelle: celle des paramilitaires, puis celle des militaires ayant pris le pouvoir dans son pays dès 1976. L'auteur a par ailleurs lui-même échappé à un enlèvement dans son propre appartement en 1978, en fuyant par le toit de sa maison alors que des membres des Forces Armées en avaient forcé la porte d'entrée.
 Parmi celles-ci, on peut citer El señor Galíndez qui parle de deux tortionnaires soumis aux ordres d'un téléphone tyrannique et qui fait écho à la notion de « banalité du mal » énoncée par Hannah Arendt, El señor Laforgue qui décrit la réapparition très peu bienséante d'un disparu lors d'un repas officiel sous le régime de Jean-Claude Duvalier, ou encore Potestad, qui parle de l'adoption, l'appropriation par des médecins militaires d'enfants de détenus morts sous la torture.
@@ -546,7 +560,9 @@
           <t>Œuvre théâtrale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Solo Brumas (2009)
@@ -601,7 +617,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pavlovsky joue en 1998 le rôle principal dans La Nube (le Nuage), film réalisé par son ami Fernando Solanas. D'autre part, il a adapté pour le cinéma sa pièce Potestad, en 2002.
 </t>
@@ -632,7 +650,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En décembre 2014, il reçoit le Grand prix de la Fondation nationale pour les arts à Buenos Aires.
 </t>
